--- a/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>191995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>167652</v>
+        <v>167863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>215214</v>
+        <v>216331</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1860912439760098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1624969570142736</v>
+        <v>0.1627019219059903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2085962877073165</v>
+        <v>0.2096795234427921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>408</v>
@@ -765,19 +765,19 @@
         <v>420717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387810</v>
+        <v>388230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>453176</v>
+        <v>454844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3199097628629181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2948874862542409</v>
+        <v>0.2952066702172225</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3445907670247688</v>
+        <v>0.3458595080603004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>605</v>
@@ -786,19 +786,19 @@
         <v>612712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>573662</v>
+        <v>571219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>659160</v>
+        <v>653923</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2610800647463423</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2444406513992851</v>
+        <v>0.2433998659054318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2808719790471385</v>
+        <v>0.2786404098635825</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>839728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>816509</v>
+        <v>815392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>864071</v>
+        <v>863860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8139087560239902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7914037122926836</v>
+        <v>0.7903204765572077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8375030429857264</v>
+        <v>0.8372980780940097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>883</v>
@@ -836,19 +836,19 @@
         <v>894396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>861937</v>
+        <v>860269</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>927303</v>
+        <v>926883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6800902371370819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6554092329752313</v>
+        <v>0.6541404919396996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7051125137457597</v>
+        <v>0.7047933297827778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1724</v>
@@ -857,19 +857,19 @@
         <v>1734123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1687675</v>
+        <v>1692912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1773173</v>
+        <v>1775616</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7389199352536577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7191280209528617</v>
+        <v>0.7213595901364174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7555593486007149</v>
+        <v>0.7566001340945682</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>199951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176223</v>
+        <v>174304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226912</v>
+        <v>226882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1181470242424536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1041263295902348</v>
+        <v>0.1029927460845453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1340776376673526</v>
+        <v>0.1340597572864459</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -982,19 +982,19 @@
         <v>294730</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>266755</v>
+        <v>266513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331511</v>
+        <v>327982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.185636283297315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1680165585992051</v>
+        <v>0.1678641365669807</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.208802946334224</v>
+        <v>0.2065801718701529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>489</v>
@@ -1003,19 +1003,19 @@
         <v>494681</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>456231</v>
+        <v>454558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>535307</v>
+        <v>533532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1508143031577852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1390919070486121</v>
+        <v>0.1385819604524741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1632000030023262</v>
+        <v>0.1626588532117927</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1492443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1465482</v>
+        <v>1465512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1516171</v>
+        <v>1518090</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8818529757575464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8659223623326474</v>
+        <v>0.8659402427135542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8958736704097652</v>
+        <v>0.8970072539154548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1266</v>
@@ -1053,19 +1053,19 @@
         <v>1292943</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1256162</v>
+        <v>1259691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1320918</v>
+        <v>1321160</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8143637167026849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7911970536657761</v>
+        <v>0.7934198281298478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8319834414007949</v>
+        <v>0.8321358634330207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2713</v>
@@ -1074,19 +1074,19 @@
         <v>2785386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2744760</v>
+        <v>2746535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2823836</v>
+        <v>2825509</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8491856968422148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8367999969976738</v>
+        <v>0.8373411467882071</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8609080929513879</v>
+        <v>0.8614180395475259</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>63848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50720</v>
+        <v>49326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79006</v>
+        <v>80875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1157907863244228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0919827210412428</v>
+        <v>0.08945461526627004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1432802823257183</v>
+        <v>0.1466697232399181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1199,19 +1199,19 @@
         <v>91170</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74827</v>
+        <v>75708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110162</v>
+        <v>110846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1913675931401579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.157062805691061</v>
+        <v>0.1589130181055319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2312329965397042</v>
+        <v>0.2326691932584067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -1220,19 +1220,19 @@
         <v>155018</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133481</v>
+        <v>131390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178233</v>
+        <v>177003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1508219057914778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1298681266987398</v>
+        <v>0.1278340548473453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1734088431093948</v>
+        <v>0.1722124263887207</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>487560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472402</v>
+        <v>470533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500688</v>
+        <v>502082</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8842092136755771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8567197176742817</v>
+        <v>0.853330276760082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9080172789587572</v>
+        <v>0.91054538473373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>365</v>
@@ -1270,19 +1270,19 @@
         <v>385242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>366250</v>
+        <v>365566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401585</v>
+        <v>400704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8086324068598422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7687670034602964</v>
+        <v>0.7673308067415937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8429371943089392</v>
+        <v>0.8410869818944682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>826</v>
@@ -1291,19 +1291,19 @@
         <v>872802</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>849587</v>
+        <v>850817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>894339</v>
+        <v>896430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8491780942085222</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8265911568906051</v>
+        <v>0.8277875736112792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8701318733012602</v>
+        <v>0.8721659451526548</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>455794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1391513980117829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>783</v>
@@ -1416,19 +1416,19 @@
         <v>806617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2387007226089774</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1247</v>
@@ -1437,19 +1437,19 @@
         <v>1262411</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1897014865769265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2819731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2778031</v>
+        <v>2776215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2856792</v>
+        <v>2853626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8608486019882171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8481178572963655</v>
+        <v>0.8475633154617346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8721630749406829</v>
+        <v>0.8711964197077475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2514</v>
@@ -1487,19 +1487,19 @@
         <v>2572580</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2521095</v>
+        <v>2522428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2625580</v>
+        <v>2618481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7612992773910227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7460634134255718</v>
+        <v>0.746457777539812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7769834226847919</v>
+        <v>0.7748827310097853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5263</v>
@@ -1508,19 +1508,19 @@
         <v>5392311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5327968</v>
+        <v>5319418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5455222</v>
+        <v>5450480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8102985134230735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8006297234430536</v>
+        <v>0.7993448261365904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8197521189638269</v>
+        <v>0.8190394230340039</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>240646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>209690</v>
+        <v>214814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268540</v>
+        <v>270272</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2471132956671078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2153251321607602</v>
+        <v>0.220587344101891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2757574646148426</v>
+        <v>0.2775354251510354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>509</v>
@@ -1872,19 +1872,19 @@
         <v>545373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>509915</v>
+        <v>506253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>584045</v>
+        <v>582760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4089704438959509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3823804008112732</v>
+        <v>0.3796344267697834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.437969838620463</v>
+        <v>0.4370061797871972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>731</v>
@@ -1893,19 +1893,19 @@
         <v>786019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>735465</v>
+        <v>744576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>831463</v>
+        <v>839711</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3406580246527499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3187482613011599</v>
+        <v>0.3226968795034506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3603534184267235</v>
+        <v>0.3639278671803663</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>733182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>705288</v>
+        <v>703556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>764138</v>
+        <v>759014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7528867043328923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.724242535385157</v>
+        <v>0.7224645748489644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7846748678392395</v>
+        <v>0.7794126558981088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>734</v>
@@ -1943,19 +1943,19 @@
         <v>788154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>749482</v>
+        <v>750767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>823612</v>
+        <v>827274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5910295561040492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.562030161379537</v>
+        <v>0.562993820212803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6176195991887268</v>
+        <v>0.6203655732302167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1419</v>
@@ -1964,19 +1964,19 @@
         <v>1521336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1475892</v>
+        <v>1467644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1571890</v>
+        <v>1562779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6593419753472501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6396465815732767</v>
+        <v>0.6360721328196338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6812517386988407</v>
+        <v>0.6773031204965497</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>318441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>284889</v>
+        <v>290038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>354165</v>
+        <v>354957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1624682175958035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1453498019847846</v>
+        <v>0.1479770880195002</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.180694574034887</v>
+        <v>0.1810984644103278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>479</v>
@@ -2089,19 +2089,19 @@
         <v>518688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>482167</v>
+        <v>473785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>559423</v>
+        <v>554708</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2954252986944921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2746242442303525</v>
+        <v>0.2698499538691813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.318626125304076</v>
+        <v>0.3159405735553822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>776</v>
@@ -2110,19 +2110,19 @@
         <v>837130</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>784614</v>
+        <v>786545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>892395</v>
+        <v>886705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2252918438399818</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2111585330920167</v>
+        <v>0.2116783823134548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2401650560941485</v>
+        <v>0.2386337177097112</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1641581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1605857</v>
+        <v>1605065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1675133</v>
+        <v>1669984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8375317824041965</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8193054259651129</v>
+        <v>0.818901535589672</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8546501980152151</v>
+        <v>0.8520229119804998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1154</v>
@@ -2160,19 +2160,19 @@
         <v>1237046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1196311</v>
+        <v>1201026</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1273567</v>
+        <v>1281949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7045747013055079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.681373874695924</v>
+        <v>0.6840594264446177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7253757557696474</v>
+        <v>0.7301500461308184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2709</v>
@@ -2181,19 +2181,19 @@
         <v>2878626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2823361</v>
+        <v>2829051</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2931142</v>
+        <v>2929211</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7747081561600182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7598349439058515</v>
+        <v>0.7613662822902887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7888414669079833</v>
+        <v>0.7883216176865451</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>51569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38337</v>
+        <v>38273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66635</v>
+        <v>67476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1073602802270701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07981424027900684</v>
+        <v>0.07967948254838804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.138727531327112</v>
+        <v>0.1404773828505349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -2306,19 +2306,19 @@
         <v>122744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104664</v>
+        <v>103745</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143296</v>
+        <v>144587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2682035600410084</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2286958266405187</v>
+        <v>0.2266884530875363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3131103746166392</v>
+        <v>0.3159318081330678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -2327,19 +2327,19 @@
         <v>174313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149821</v>
+        <v>148593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200119</v>
+        <v>199800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1858375744559377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597264947380806</v>
+        <v>0.1584174080418944</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2133498106971349</v>
+        <v>0.2130091310028692</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>428763</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413697</v>
+        <v>412856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>441995</v>
+        <v>442059</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8926397197729299</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8612724686728879</v>
+        <v>0.8595226171494651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.920185759720993</v>
+        <v>0.920320517451612</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>302</v>
@@ -2377,19 +2377,19 @@
         <v>334910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314358</v>
+        <v>313067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352990</v>
+        <v>353909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7317964399589916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6868896253833604</v>
+        <v>0.6840681918669322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.771304173359481</v>
+        <v>0.7733115469124637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>691</v>
@@ -2398,19 +2398,19 @@
         <v>763673</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>737867</v>
+        <v>738186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>788165</v>
+        <v>789393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8141624255440623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7866501893028651</v>
+        <v>0.7869908689971309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8402735052619195</v>
+        <v>0.8415825919581056</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>610656</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>564566</v>
+        <v>567315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>659040</v>
+        <v>660228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1788585717034405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1653590660317121</v>
+        <v>0.1661641736159901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1930301093087619</v>
+        <v>0.1933779649871886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1097</v>
@@ -2523,19 +2523,19 @@
         <v>1186806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1131774</v>
+        <v>1128629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1248021</v>
+        <v>1248216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3346022700861679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3190868659704311</v>
+        <v>0.3182000368246284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3518607900382315</v>
+        <v>0.3519157290036344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1664</v>
@@ -2544,19 +2544,19 @@
         <v>1797462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1720213</v>
+        <v>1722213</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1877508</v>
+        <v>1874076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2582152756452059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.247118036669094</v>
+        <v>0.2474052997180131</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.26971435750126</v>
+        <v>0.269221360900216</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2803526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2755142</v>
+        <v>2753954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2849616</v>
+        <v>2846867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8211414282965595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8069698906912381</v>
+        <v>0.8066220350128114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.834640933968288</v>
+        <v>0.83383582638401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2190</v>
@@ -2594,19 +2594,19 @@
         <v>2360110</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2298895</v>
+        <v>2298700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2415142</v>
+        <v>2418287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6653977299138322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6481392099617685</v>
+        <v>0.6480842709963656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.680913134029569</v>
+        <v>0.6817999631753716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4819</v>
@@ -2615,19 +2615,19 @@
         <v>5163636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5083590</v>
+        <v>5087022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5240885</v>
+        <v>5238885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.741784724354794</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7302856424987398</v>
+        <v>0.730778639099784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.752881963330906</v>
+        <v>0.7525947002819869</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>181320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159075</v>
+        <v>158125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204778</v>
+        <v>203782</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2403670645224434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2108778234465312</v>
+        <v>0.2096189298705169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2714643137525194</v>
+        <v>0.2701430235257687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>365</v>
@@ -2979,19 +2979,19 @@
         <v>413629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>381200</v>
+        <v>382945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>446493</v>
+        <v>448013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4158495096549968</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3832465877956154</v>
+        <v>0.3850013929825589</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4488904833236861</v>
+        <v>0.4504179204763043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -3000,19 +3000,19 @@
         <v>594949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>556944</v>
+        <v>553408</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636932</v>
+        <v>633998</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3401639230403005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3184341794929725</v>
+        <v>0.3164124253905424</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3641679628795921</v>
+        <v>0.3624903603421004</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>573027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>549569</v>
+        <v>550565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>595272</v>
+        <v>596222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7596329354775566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7285356862474806</v>
+        <v>0.7298569764742313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7891221765534689</v>
+        <v>0.7903810701294831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>527</v>
@@ -3050,19 +3050,19 @@
         <v>581031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>548167</v>
+        <v>546647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>613460</v>
+        <v>611715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5841504903450031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.551109516676314</v>
+        <v>0.5495820795236958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6167534122043848</v>
+        <v>0.6149986070174412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1104</v>
@@ -3071,19 +3071,19 @@
         <v>1154058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1112075</v>
+        <v>1115009</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1192063</v>
+        <v>1195599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6598360769596995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6358320371204077</v>
+        <v>0.6375096396578996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6815658205070271</v>
+        <v>0.6835875746094577</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>354581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319442</v>
+        <v>319719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>391192</v>
+        <v>390080</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1707685617634806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1538450746839764</v>
+        <v>0.1539787464763634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1884004255318446</v>
+        <v>0.1878649873106609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>507</v>
@@ -3196,19 +3196,19 @@
         <v>541859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>504550</v>
+        <v>502373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>586368</v>
+        <v>583187</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.272523872926844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2537593912377077</v>
+        <v>0.2526647227653516</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2949092601536162</v>
+        <v>0.2933092633606553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>839</v>
@@ -3217,19 +3217,19 @@
         <v>896441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>839462</v>
+        <v>842711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>951864</v>
+        <v>954248</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2205436587936831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2065258404235335</v>
+        <v>0.2073249934006923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2341789155710587</v>
+        <v>0.2347656667870385</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1721804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1685193</v>
+        <v>1686305</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1756943</v>
+        <v>1756666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8292314382365193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8115995744681556</v>
+        <v>0.8121350126893393</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8461549253160239</v>
+        <v>0.8460212535236367</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1401</v>
@@ -3267,19 +3267,19 @@
         <v>1446441</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1401932</v>
+        <v>1405113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1483750</v>
+        <v>1485927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.727476127073156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7050907398463839</v>
+        <v>0.7066907366393449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7462406087622923</v>
+        <v>0.7473352772346484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3021</v>
@@ -3288,19 +3288,19 @@
         <v>3168244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3112821</v>
+        <v>3110437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3225223</v>
+        <v>3221974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7794563412063169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7658210844289414</v>
+        <v>0.7652343332129612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7934741595764661</v>
+        <v>0.7926750065993075</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>100147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81703</v>
+        <v>81507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120292</v>
+        <v>119745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1831222156683314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1493972051235572</v>
+        <v>0.1490385528552328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.219957846860318</v>
+        <v>0.2189581629897683</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -3413,19 +3413,19 @@
         <v>144749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124045</v>
+        <v>124101</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164714</v>
+        <v>167497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2635925078536132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2258899310937038</v>
+        <v>0.2259918829946461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2999489956446066</v>
+        <v>0.3050163352439971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>230</v>
@@ -3434,19 +3434,19 @@
         <v>244896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>214666</v>
+        <v>219312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>273343</v>
+        <v>273735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2234401113801539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.195858117931616</v>
+        <v>0.2000972003158043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2493948305166707</v>
+        <v>0.2497518045167646</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>446739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>426594</v>
+        <v>427141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465183</v>
+        <v>465379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8168777843316686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7800421531396821</v>
+        <v>0.7810418370102318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8506027948764429</v>
+        <v>0.8509614471447673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>387</v>
@@ -3484,19 +3484,19 @@
         <v>404391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>384426</v>
+        <v>381643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>425095</v>
+        <v>425039</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7364074921463868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7000510043553934</v>
+        <v>0.6949836647560028</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7741100689062963</v>
+        <v>0.7740081170053539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>797</v>
@@ -3505,19 +3505,19 @@
         <v>851131</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>822684</v>
+        <v>822292</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>881361</v>
+        <v>876715</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.776559888619846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7506051694833292</v>
+        <v>0.7502481954832354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.804141882068384</v>
+        <v>0.7999027996841958</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>636048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>591184</v>
+        <v>587080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>683816</v>
+        <v>678782</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1883127161823566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1750297968678042</v>
+        <v>0.1738147823434902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2024550161321194</v>
+        <v>0.2009647205773466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1011</v>
@@ -3630,19 +3630,19 @@
         <v>1100237</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1043752</v>
+        <v>1046063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1155880</v>
+        <v>1159231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3114966396630776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.295504731372755</v>
+        <v>0.2961588221486072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3272501195713931</v>
+        <v>0.3281988201384994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1619</v>
@@ -3651,19 +3651,19 @@
         <v>1736286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1664575</v>
+        <v>1658670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1819514</v>
+        <v>1815024</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2512817078443292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2409034832094283</v>
+        <v>0.2400488945436351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2633268407118605</v>
+        <v>0.2626769410120851</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2741570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2693802</v>
+        <v>2698836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2786434</v>
+        <v>2790538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8116872838176434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7975449838678805</v>
+        <v>0.7990352794226533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8249702031321958</v>
+        <v>0.8261852176565097</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2315</v>
@@ -3701,19 +3701,19 @@
         <v>2431863</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2376220</v>
+        <v>2372869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2488348</v>
+        <v>2486037</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6885033603369224</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6727498804286067</v>
+        <v>0.6718011798615006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7044952686272449</v>
+        <v>0.7038411778513927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4922</v>
@@ -3722,19 +3722,19 @@
         <v>5173432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5090204</v>
+        <v>5094694</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5245143</v>
+        <v>5251048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7487182921556708</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7366731592881395</v>
+        <v>0.7373230589879151</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7590965167905718</v>
+        <v>0.759951105456365</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>191112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169919</v>
+        <v>170573</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>213721</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3303420217999148</v>
+        <v>0.3303420217999149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2937084409482978</v>
+        <v>0.2948388217985439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3694216962421832</v>
+        <v>0.3694220440371546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>879</v>
@@ -4086,19 +4086,19 @@
         <v>484423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>460928</v>
+        <v>461087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>504478</v>
+        <v>505405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5902467855872208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5616197010692445</v>
+        <v>0.5618130188974686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6146835192518149</v>
+        <v>0.6158132462774272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1136</v>
@@ -4107,19 +4107,19 @@
         <v>675535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>643214</v>
+        <v>644397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>708075</v>
+        <v>708000</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4827867396556697</v>
+        <v>0.4827867396556696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4596880981752034</v>
+        <v>0.4605333417920338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5060419743774109</v>
+        <v>0.5059886635777706</v>
       </c>
     </row>
     <row r="5">
@@ -4139,16 +4139,16 @@
         <v>364808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408610</v>
+        <v>407956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6696579782000852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6305783037578168</v>
+        <v>0.6305779559628456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.706291559051702</v>
+        <v>0.7051611782014561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>546</v>
@@ -4157,19 +4157,19 @@
         <v>336289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>316234</v>
+        <v>315307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359784</v>
+        <v>359625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4097532144127792</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3853164807481851</v>
+        <v>0.3841867537225725</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4383802989307554</v>
+        <v>0.4381869811025312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>980</v>
@@ -4178,19 +4178,19 @@
         <v>723706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>691166</v>
+        <v>691241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756027</v>
+        <v>754844</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5172132603443304</v>
+        <v>0.5172132603443302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4939580256225892</v>
+        <v>0.4940113364222294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5403119018247968</v>
+        <v>0.5394666582079664</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>505591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>463813</v>
+        <v>464123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>550572</v>
+        <v>549890</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.226664949614609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2079350151178805</v>
+        <v>0.2080739376082599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.246830734961706</v>
+        <v>0.2465248405019116</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1121</v>
@@ -4303,19 +4303,19 @@
         <v>750939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>707276</v>
+        <v>712169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>791951</v>
+        <v>789660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3459423094545054</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3258275358258123</v>
+        <v>0.3280814410997976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3648356637838843</v>
+        <v>0.3637802667529483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1619</v>
@@ -4324,19 +4324,19 @@
         <v>1256531</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1194412</v>
+        <v>1199990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1311845</v>
+        <v>1322240</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.285492519403072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2713787779715077</v>
+        <v>0.2726459430174972</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2980603408258544</v>
+        <v>0.3004220121562066</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1724975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1679994</v>
+        <v>1680676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1766753</v>
+        <v>1766443</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.773335050385391</v>
+        <v>0.7733350503853911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.753169265038294</v>
+        <v>0.7534751594980883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7920649848821195</v>
+        <v>0.79192606239174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1799</v>
@@ -4374,19 +4374,19 @@
         <v>1419768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1378756</v>
+        <v>1381047</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1463431</v>
+        <v>1458538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6540576905454946</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6351643362161157</v>
+        <v>0.6362197332470521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6741724641741876</v>
+        <v>0.6719185589002025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3293</v>
@@ -4395,19 +4395,19 @@
         <v>3144743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3089429</v>
+        <v>3079034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3206862</v>
+        <v>3201284</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7145074805969281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7019396591741456</v>
+        <v>0.6995779878437934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7286212220284923</v>
+        <v>0.727354056982503</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>141330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120773</v>
+        <v>117769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172454</v>
+        <v>168154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1986124940115735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1697241136867743</v>
+        <v>0.1655019731278342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2423512032779679</v>
+        <v>0.2363088698637146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>307</v>
@@ -4520,19 +4520,19 @@
         <v>215854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>195154</v>
+        <v>193526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239533</v>
+        <v>238600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2937274039156029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2655600379544393</v>
+        <v>0.2633445604642493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3259503385862806</v>
+        <v>0.3246796078432037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>435</v>
@@ -4541,19 +4541,19 @@
         <v>357184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>325027</v>
+        <v>326970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>393427</v>
+        <v>388497</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2469356954784294</v>
+        <v>0.2469356954784293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2247046115779083</v>
+        <v>0.226048108671049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2719921094891879</v>
+        <v>0.2685837246857581</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>570257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539133</v>
+        <v>543433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>590814</v>
+        <v>593818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8013875059884266</v>
+        <v>0.8013875059884265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7576487967220321</v>
+        <v>0.7636911301362854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8302758863132257</v>
+        <v>0.8344980268721659</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>697</v>
@@ -4591,19 +4591,19 @@
         <v>519023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>495344</v>
+        <v>496277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539723</v>
+        <v>541351</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.706272596084397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6740496614137194</v>
+        <v>0.6753203921567963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7344399620455608</v>
+        <v>0.7366554395357506</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1250</v>
@@ -4612,19 +4612,19 @@
         <v>1089280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053037</v>
+        <v>1057967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1121437</v>
+        <v>1119494</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7530643045215707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7280078905108121</v>
+        <v>0.7314162753142419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7752953884220919</v>
+        <v>0.773951891328951</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>838034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>788562</v>
+        <v>782288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>895846</v>
+        <v>896956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2380316288826277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.223979813896558</v>
+        <v>0.2221977815023143</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2544524087346044</v>
+        <v>0.2547676656145354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2307</v>
@@ -4737,19 +4737,19 @@
         <v>1451216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1399864</v>
+        <v>1399414</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1505751</v>
+        <v>1501718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3894525544613823</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3756717331255764</v>
+        <v>0.3755507638338991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4040878455581497</v>
+        <v>0.403005578206038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3190</v>
@@ -4758,19 +4758,19 @@
         <v>2289249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2212291</v>
+        <v>2212491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2367695</v>
+        <v>2373504</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3158901748129179</v>
+        <v>0.3158901748129178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3052708377405622</v>
+        <v>0.3052984139479284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3267147262970641</v>
+        <v>0.3275163083923486</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2682649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2624837</v>
+        <v>2623727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2732121</v>
+        <v>2738395</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7619683711173723</v>
+        <v>0.7619683711173724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7455475912653956</v>
+        <v>0.7452323343854647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7760201861034423</v>
+        <v>0.7778022184976857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3042</v>
@@ -4808,19 +4808,19 @@
         <v>2275081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2220546</v>
+        <v>2224579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2326433</v>
+        <v>2326883</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6105474455386177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5959121544418501</v>
+        <v>0.596994421793962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6243282668744234</v>
+        <v>0.6244492361661009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5523</v>
@@ -4829,19 +4829,19 @@
         <v>4957730</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4879284</v>
+        <v>4873475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5034688</v>
+        <v>5034488</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6841098251870822</v>
+        <v>0.6841098251870824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6732852737029359</v>
+        <v>0.6724836916076512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6947291622594378</v>
+        <v>0.6947015860520717</v>
       </c>
     </row>
     <row r="15">
